--- a/Simulasi/Simulasi Gantry Motor ICCAS/Olah Result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/Olah Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Tugas Akhir\TA_13319004\Simulasi\Simulasi Gantry Motor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Tugas Akhir\TA_13319004\Simulasi\Simulasi Gantry Motor ICCAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7AD747-B967-4BF5-99D2-3F1D7DC0DB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8C651-583B-4E6B-99F0-57D1250E46D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,18 +216,18 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,7 +513,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,107 +530,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>6.31</v>
+        <v>2.2488999999999999</v>
       </c>
       <c r="C3" s="5">
-        <v>10.436</v>
+        <v>3.8635999999999999</v>
       </c>
       <c r="D3" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>2.7699999999999999E-3</v>
       </c>
       <c r="E3" s="5">
-        <v>3.98</v>
+        <v>2.0566</v>
       </c>
       <c r="F3" s="5">
-        <v>7.5190000000000001</v>
+        <v>4.0758999999999999</v>
       </c>
       <c r="G3" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="H3" s="5">
-        <v>9.7859999999999996</v>
+        <v>4.8270999999999997</v>
       </c>
       <c r="I3" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>8.2199999999999999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>7.9710000000000001</v>
+        <v>6.3270999999999997</v>
       </c>
       <c r="C4" s="5">
-        <v>12.452999999999999</v>
+        <v>8.7157999999999998</v>
       </c>
       <c r="D4" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>3.8899999999999998E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>6.8780000000000001</v>
+        <v>6.4337</v>
       </c>
       <c r="F4" s="5">
-        <v>10.750999999999999</v>
+        <v>8.7582000000000004</v>
       </c>
       <c r="G4" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0299999999999997E-3</v>
       </c>
       <c r="H4" s="5">
-        <v>11.5</v>
+        <v>9.7525999999999993</v>
       </c>
       <c r="I4" s="5">
-        <v>1.9E-2</v>
+        <v>1.154E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Gantry Motor ICCAS/Olah Result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/Olah Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Tugas Akhir\TA_13319004\Simulasi\Simulasi Gantry Motor ICCAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8C651-583B-4E6B-99F0-57D1250E46D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C428490E-ACA7-4EAB-9B45-1C680CFEB6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Variation</t>
   </si>
@@ -82,8 +82,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Rise time
-</t>
+      <t xml:space="preserve">Settling time </t>
     </r>
     <r>
       <rPr>
@@ -97,8 +96,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Settling time
-</t>
+      <t xml:space="preserve">Rise time </t>
     </r>
     <r>
       <rPr>
@@ -112,8 +110,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">RMSE
-</t>
+      <t xml:space="preserve">RMSE </t>
     </r>
     <r>
       <rPr>
@@ -127,8 +124,21 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">RMSE
-</t>
+      <t xml:space="preserve">RMSE </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(degree)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Max Amplitude </t>
     </r>
     <r>
       <rPr>
@@ -510,26 +520,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -547,35 +558,39 @@
         <v>5</v>
       </c>
       <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -603,8 +618,11 @@
       <c r="I3" s="5">
         <v>8.2199999999999999E-3</v>
       </c>
+      <c r="J3" s="5">
+        <v>3.08874</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -631,14 +649,17 @@
       </c>
       <c r="I4" s="5">
         <v>1.154E-2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.27624</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
